--- a/Code/Results/Cases/Case_5_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.068527405536969</v>
+        <v>0.6743817574864011</v>
       </c>
       <c r="C2">
-        <v>0.3114134496531733</v>
+        <v>0.2449791818670235</v>
       </c>
       <c r="D2">
-        <v>0.04181536838099476</v>
+        <v>0.05732154878420204</v>
       </c>
       <c r="E2">
-        <v>0.06336765344254403</v>
+        <v>0.1074546111888708</v>
       </c>
       <c r="F2">
-        <v>1.783065914059989</v>
+        <v>2.878803597020351</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8848832799204374</v>
+        <v>1.501337203754431</v>
       </c>
       <c r="J2">
-        <v>0.1032345997432316</v>
+        <v>0.1807450889423734</v>
       </c>
       <c r="K2">
-        <v>1.356849294559254</v>
+        <v>0.9121141558723593</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3908534301908304</v>
+        <v>0.3575122264537711</v>
       </c>
       <c r="N2">
-        <v>1.601669748507888</v>
+        <v>2.967849150855329</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9304061643474313</v>
+        <v>0.640689483724401</v>
       </c>
       <c r="C3">
-        <v>0.2740461352990451</v>
+        <v>0.2365572323610081</v>
       </c>
       <c r="D3">
-        <v>0.03668096014953903</v>
+        <v>0.05632725425287077</v>
       </c>
       <c r="E3">
-        <v>0.05823720359698115</v>
+        <v>0.1067583391954621</v>
       </c>
       <c r="F3">
-        <v>1.699677117208907</v>
+        <v>2.871212034085929</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8603700078429455</v>
+        <v>1.50149608696001</v>
       </c>
       <c r="J3">
-        <v>0.09747465277556699</v>
+        <v>0.1802297368062185</v>
       </c>
       <c r="K3">
-        <v>1.184220996608133</v>
+        <v>0.8708599391783878</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3448630373896222</v>
+        <v>0.3475142182274169</v>
       </c>
       <c r="N3">
-        <v>1.63734862801882</v>
+        <v>2.984003695558819</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8465845598465194</v>
+        <v>0.6203843842383776</v>
       </c>
       <c r="C4">
-        <v>0.2515162861829197</v>
+        <v>0.2315308718671645</v>
       </c>
       <c r="D4">
-        <v>0.0335524112072747</v>
+        <v>0.05574239339185283</v>
       </c>
       <c r="E4">
-        <v>0.05516178839964425</v>
+        <v>0.1063766714217707</v>
       </c>
       <c r="F4">
-        <v>1.651189241141779</v>
+        <v>2.867788914015279</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.846653073249918</v>
+        <v>1.502191119430293</v>
       </c>
       <c r="J4">
-        <v>0.09408242035559056</v>
+        <v>0.1799882657655303</v>
       </c>
       <c r="K4">
-        <v>1.07962744244395</v>
+        <v>0.8460555906855518</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3170593372431796</v>
+        <v>0.341572948509139</v>
       </c>
       <c r="N4">
-        <v>1.660987914822982</v>
+        <v>2.994686754515527</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8126457959309619</v>
+        <v>0.6122060924509753</v>
       </c>
       <c r="C5">
-        <v>0.2424285890526079</v>
+        <v>0.2295189391075496</v>
       </c>
       <c r="D5">
-        <v>0.03228292210692274</v>
+        <v>0.05551053855027277</v>
       </c>
       <c r="E5">
-        <v>0.05392606863332361</v>
+        <v>0.1062326869378829</v>
       </c>
       <c r="F5">
-        <v>1.632071414315973</v>
+        <v>2.866705290557562</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8413807112554679</v>
+        <v>1.502624559269861</v>
       </c>
       <c r="J5">
-        <v>0.09273416482059105</v>
+        <v>0.1799087227176059</v>
       </c>
       <c r="K5">
-        <v>1.037317975480818</v>
+        <v>0.8360799160352883</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3058278682490538</v>
+        <v>0.3392015573179492</v>
       </c>
       <c r="N5">
-        <v>1.671041867936026</v>
+        <v>2.999232255595537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8070227294403196</v>
+        <v>0.610853907305227</v>
       </c>
       <c r="C6">
-        <v>0.2409249264658655</v>
+        <v>0.2291870532635727</v>
       </c>
       <c r="D6">
-        <v>0.03207243456547104</v>
+        <v>0.05547243163456983</v>
       </c>
       <c r="E6">
-        <v>0.0537219024676574</v>
+        <v>0.1062094764981758</v>
       </c>
       <c r="F6">
-        <v>1.628934504789896</v>
+        <v>2.866544158805524</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8405239014057315</v>
+        <v>1.502705602965705</v>
       </c>
       <c r="J6">
-        <v>0.09251228615016771</v>
+        <v>0.1798966539491644</v>
       </c>
       <c r="K6">
-        <v>1.030310346979604</v>
+        <v>0.8344314551528953</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.303968561612308</v>
+        <v>0.3388107943482268</v>
       </c>
       <c r="N6">
-        <v>1.67273631566033</v>
+        <v>2.999998630959212</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8461259986411278</v>
+        <v>0.6202736992592861</v>
       </c>
       <c r="C7">
-        <v>0.2513933617361772</v>
+        <v>0.2315035911230154</v>
       </c>
       <c r="D7">
-        <v>0.03353526927090655</v>
+        <v>0.05573924023145338</v>
       </c>
       <c r="E7">
-        <v>0.05514505363770539</v>
+        <v>0.1063746828115804</v>
       </c>
       <c r="F7">
-        <v>1.650928866686826</v>
+        <v>2.867773039368018</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.846580706312686</v>
+        <v>1.50219635681114</v>
       </c>
       <c r="J7">
-        <v>0.09406410202543469</v>
+        <v>0.1799871166501745</v>
       </c>
       <c r="K7">
-        <v>1.079055623583429</v>
+        <v>0.845920519500396</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3169074792492239</v>
+        <v>0.3415407656991931</v>
       </c>
       <c r="N7">
-        <v>1.66112182125601</v>
+        <v>2.994747279165175</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020680881118523</v>
+        <v>0.6626854175413257</v>
       </c>
       <c r="C8">
-        <v>0.2984366588378009</v>
+        <v>0.2420452178231756</v>
       </c>
       <c r="D8">
-        <v>0.04003965937435794</v>
+        <v>0.05697341392967559</v>
       </c>
       <c r="E8">
-        <v>0.06158239350419237</v>
+        <v>0.1072050326718959</v>
       </c>
       <c r="F8">
-        <v>1.75372489305272</v>
+        <v>2.875929034661112</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8761428885905147</v>
+        <v>1.501267957186904</v>
       </c>
       <c r="J8">
-        <v>0.1012172287723772</v>
+        <v>0.1805518433626148</v>
       </c>
       <c r="K8">
-        <v>1.29701197826671</v>
+        <v>0.8977805665754204</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3748991924705791</v>
+        <v>0.3540239374602336</v>
       </c>
       <c r="N8">
-        <v>1.61360304370298</v>
+        <v>2.973260604696357</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.372201675387402</v>
+        <v>0.7488863686125455</v>
       </c>
       <c r="C9">
-        <v>0.3944949763927923</v>
+        <v>0.2638694768930918</v>
       </c>
       <c r="D9">
-        <v>0.05301564685534998</v>
+        <v>0.05959579168368379</v>
       </c>
       <c r="E9">
-        <v>0.07485969123558078</v>
+        <v>0.109196444780352</v>
       </c>
       <c r="F9">
-        <v>1.978828379641925</v>
+        <v>2.901751739211321</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9455838943096069</v>
+        <v>1.504191089102676</v>
       </c>
       <c r="J9">
-        <v>0.1164977059674186</v>
+        <v>0.1822538565913447</v>
       </c>
       <c r="K9">
-        <v>1.73745219011596</v>
+        <v>1.00365502748204</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4925840937321055</v>
+        <v>0.3800704623262945</v>
       </c>
       <c r="N9">
-        <v>1.534884170461396</v>
+        <v>2.937191387577698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638213821992224</v>
+        <v>0.8140741764142945</v>
       </c>
       <c r="C10">
-        <v>0.4681861751746794</v>
+        <v>0.2806132397461738</v>
       </c>
       <c r="D10">
-        <v>0.06273051452860301</v>
+        <v>0.06164426381064203</v>
       </c>
       <c r="E10">
-        <v>0.08510541559491358</v>
+        <v>0.1108802921017933</v>
       </c>
       <c r="F10">
-        <v>2.161567843367692</v>
+        <v>2.926728430311385</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.004928956478174</v>
+        <v>1.509237025052016</v>
       </c>
       <c r="J10">
-        <v>0.1286509911238056</v>
+        <v>0.1838669668880968</v>
       </c>
       <c r="K10">
-        <v>2.071895514297324</v>
+        <v>1.084002982979115</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5822459098085915</v>
+        <v>0.4001642874106679</v>
       </c>
       <c r="N10">
-        <v>1.486953976543887</v>
+        <v>2.914393943654261</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.761435206105432</v>
+        <v>0.8441349944173737</v>
       </c>
       <c r="C11">
-        <v>0.5025838801516329</v>
+        <v>0.2883861370700345</v>
       </c>
       <c r="D11">
-        <v>0.06720091407530759</v>
+        <v>0.06260233349875932</v>
       </c>
       <c r="E11">
-        <v>0.08989564034557063</v>
+        <v>0.1116941493018047</v>
       </c>
       <c r="F11">
-        <v>2.249210867647847</v>
+        <v>2.939398102018586</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.034062693725922</v>
+        <v>1.512163465637791</v>
       </c>
       <c r="J11">
-        <v>0.134420982999444</v>
+        <v>0.1846796235980008</v>
       </c>
       <c r="K11">
-        <v>2.227114267198345</v>
+        <v>1.121115652017352</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6239220704278665</v>
+        <v>0.4095140276668587</v>
       </c>
       <c r="N11">
-        <v>1.467568301333912</v>
+        <v>2.904827861580458</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.808461590308895</v>
+        <v>0.8555767207441818</v>
       </c>
       <c r="C12">
-        <v>0.5157533817327646</v>
+        <v>0.2913520679206272</v>
       </c>
       <c r="D12">
-        <v>0.06890211213316633</v>
+        <v>0.06296886943026436</v>
       </c>
       <c r="E12">
-        <v>0.09173023529179858</v>
+        <v>0.1120092046633445</v>
       </c>
       <c r="F12">
-        <v>2.283116295602028</v>
+        <v>2.944383975270327</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.045432468927743</v>
+        <v>1.51336246598725</v>
       </c>
       <c r="J12">
-        <v>0.1366443016176575</v>
+        <v>0.1849986920390023</v>
       </c>
       <c r="K12">
-        <v>2.286399754759714</v>
+        <v>1.135250188445468</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6398490668321486</v>
+        <v>0.4130845771539242</v>
       </c>
       <c r="N12">
-        <v>1.460600218847375</v>
+        <v>2.901321246922592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.798316579446322</v>
+        <v>0.8531099470739605</v>
       </c>
       <c r="C13">
-        <v>0.5129103912215101</v>
+        <v>0.2907122998383613</v>
       </c>
       <c r="D13">
-        <v>0.06853533999208139</v>
+        <v>0.06288976373709687</v>
       </c>
       <c r="E13">
-        <v>0.09133417005743638</v>
+        <v>0.1119410468003359</v>
       </c>
       <c r="F13">
-        <v>2.27578112064478</v>
+        <v>2.943301808790125</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.042968265402173</v>
+        <v>1.513100199210569</v>
       </c>
       <c r="J13">
-        <v>0.1361637030956047</v>
+        <v>0.1849294709768188</v>
       </c>
       <c r="K13">
-        <v>2.273607894224796</v>
+        <v>1.132202471241527</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6364121539633132</v>
+        <v>0.4123142615817486</v>
       </c>
       <c r="N13">
-        <v>1.462083910484452</v>
+        <v>2.902071304036369</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.765296491467325</v>
+        <v>0.8450751434208144</v>
       </c>
       <c r="C14">
-        <v>0.5036643508941268</v>
+        <v>0.2886296946395817</v>
       </c>
       <c r="D14">
-        <v>0.06734069909028761</v>
+        <v>0.06263241394911745</v>
       </c>
       <c r="E14">
-        <v>0.09004614759069796</v>
+        <v>0.1117199316067214</v>
       </c>
       <c r="F14">
-        <v>2.251985508018009</v>
+        <v>2.939804521514901</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.034991146030848</v>
+        <v>1.512260287461295</v>
       </c>
       <c r="J14">
-        <v>0.1346031061741684</v>
+        <v>0.1847056464470143</v>
       </c>
       <c r="K14">
-        <v>2.231981155402224</v>
+        <v>1.122276890207274</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6252293798917705</v>
+        <v>0.4098071777994647</v>
       </c>
       <c r="N14">
-        <v>1.466987407650578</v>
+        <v>2.904537047519071</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.745119758990285</v>
+        <v>0.8401611892977883</v>
       </c>
       <c r="C15">
-        <v>0.4980201801108421</v>
+        <v>0.2873569712158712</v>
       </c>
       <c r="D15">
-        <v>0.06661006671198777</v>
+        <v>0.06247526529736547</v>
       </c>
       <c r="E15">
-        <v>0.08925994820477001</v>
+        <v>0.1115853857047071</v>
       </c>
       <c r="F15">
-        <v>2.237505494670074</v>
+        <v>2.937686837126563</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.030149820024626</v>
+        <v>1.511757647259635</v>
       </c>
       <c r="J15">
-        <v>0.1336523032075192</v>
+        <v>0.1845700232114496</v>
       </c>
       <c r="K15">
-        <v>2.20655169744623</v>
+        <v>1.11620770333667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6183990525162031</v>
+        <v>0.4082754229960628</v>
       </c>
       <c r="N15">
-        <v>1.470040285904687</v>
+        <v>2.90606247872131</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630209440602272</v>
+        <v>0.8121178022982463</v>
       </c>
       <c r="C16">
-        <v>0.4659573132074115</v>
+        <v>0.280108408354522</v>
       </c>
       <c r="D16">
-        <v>0.06243947531736183</v>
+        <v>0.06158217626489915</v>
       </c>
       <c r="E16">
-        <v>0.08479513661497151</v>
+        <v>0.1108280662873966</v>
       </c>
       <c r="F16">
-        <v>2.15593665062741</v>
+        <v>2.925926759590197</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.003070517366332</v>
+        <v>1.509058479864869</v>
       </c>
       <c r="J16">
-        <v>0.1282790692861937</v>
+        <v>0.1838154440020503</v>
       </c>
       <c r="K16">
-        <v>2.061818957044608</v>
+        <v>1.081588887932213</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5795416025757021</v>
+        <v>0.399557461040942</v>
       </c>
       <c r="N16">
-        <v>1.4882716269816</v>
+        <v>2.915035313083251</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.560314204294031</v>
+        <v>0.7950181387379587</v>
       </c>
       <c r="C17">
-        <v>0.4465241970823115</v>
+        <v>0.2757016667407868</v>
       </c>
       <c r="D17">
-        <v>0.05989472190844936</v>
+        <v>0.06104098427140059</v>
       </c>
       <c r="E17">
-        <v>0.08209065078838051</v>
+        <v>0.110375722372531</v>
       </c>
       <c r="F17">
-        <v>2.107099216173694</v>
+        <v>2.919047326553269</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9870262216385655</v>
+        <v>1.507564304104683</v>
       </c>
       <c r="J17">
-        <v>0.1250470750269272</v>
+        <v>0.1833727246172998</v>
       </c>
       <c r="K17">
-        <v>1.973862871262583</v>
+        <v>1.06049527454519</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5559432513598708</v>
+        <v>0.3942627626384478</v>
       </c>
       <c r="N17">
-        <v>1.500092413501534</v>
+        <v>2.92074603930115</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.520317362832316</v>
+        <v>0.7852211383545011</v>
       </c>
       <c r="C18">
-        <v>0.4354279857987251</v>
+        <v>0.2731817124447389</v>
       </c>
       <c r="D18">
-        <v>0.05843578699009555</v>
+        <v>0.06073217387625363</v>
       </c>
       <c r="E18">
-        <v>0.08054714903976645</v>
+        <v>0.1101200526046746</v>
       </c>
       <c r="F18">
-        <v>2.0794296677511</v>
+        <v>2.91521353415591</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9779971840081103</v>
+        <v>1.50676428320196</v>
       </c>
       <c r="J18">
-        <v>0.1232106026385438</v>
+        <v>0.1831255056460535</v>
       </c>
       <c r="K18">
-        <v>1.923558425157296</v>
+        <v>1.048415684394428</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5424526074505351</v>
+        <v>0.3912370627674093</v>
       </c>
       <c r="N18">
-        <v>1.507117369214455</v>
+        <v>2.924106420233088</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.506808970434207</v>
+        <v>0.7819106194916969</v>
       </c>
       <c r="C19">
-        <v>0.4316844262783093</v>
+        <v>0.27233101990862</v>
       </c>
       <c r="D19">
-        <v>0.05794260139338547</v>
+        <v>0.06062804103575559</v>
       </c>
       <c r="E19">
-        <v>0.08002655590355445</v>
+        <v>0.1100342617550112</v>
       </c>
       <c r="F19">
-        <v>2.070131482941562</v>
+        <v>2.913936613159876</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9749734507393626</v>
+        <v>1.506503607648845</v>
       </c>
       <c r="J19">
-        <v>0.1225925611574823</v>
+        <v>0.1830430763521562</v>
       </c>
       <c r="K19">
-        <v>1.90657337471734</v>
+        <v>1.044334829292382</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5378985740788096</v>
+        <v>0.3902159925305355</v>
       </c>
       <c r="N19">
-        <v>1.509533978865448</v>
+        <v>2.925257188238902</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.567733121890569</v>
+        <v>0.7968344667630731</v>
       </c>
       <c r="C20">
-        <v>0.4485843565487642</v>
+        <v>0.2761692514375227</v>
       </c>
       <c r="D20">
-        <v>0.06016511764076427</v>
+        <v>0.06109833980038104</v>
       </c>
       <c r="E20">
-        <v>0.08237728695017665</v>
+        <v>0.1104234088802087</v>
       </c>
       <c r="F20">
-        <v>2.112254058137509</v>
+        <v>2.919766915333184</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9887133369762182</v>
+        <v>1.507717214491407</v>
       </c>
       <c r="J20">
-        <v>0.1253887739346808</v>
+        <v>0.1834190847892572</v>
       </c>
       <c r="K20">
-        <v>1.983195941581869</v>
+        <v>1.062735251206249</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5584466766442162</v>
+        <v>0.3948243567975851</v>
       </c>
       <c r="N20">
-        <v>1.498810510988065</v>
+        <v>2.92013028466063</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.774984984468034</v>
+        <v>0.847433577407287</v>
       </c>
       <c r="C21">
-        <v>0.5063760811770806</v>
+        <v>0.2892407950537006</v>
       </c>
       <c r="D21">
-        <v>0.06769135880427513</v>
+        <v>0.06270790269692839</v>
       </c>
       <c r="E21">
-        <v>0.09042389369230008</v>
+        <v>0.1117846923179648</v>
       </c>
       <c r="F21">
-        <v>2.258954826712852</v>
+        <v>2.940826652537268</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.037324806500244</v>
+        <v>1.512504524392519</v>
       </c>
       <c r="J21">
-        <v>0.1350604199032972</v>
+        <v>0.1847710815999406</v>
       </c>
       <c r="K21">
-        <v>2.244193616705019</v>
+        <v>1.125190082055241</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6285099461325743</v>
+        <v>0.4105427550615914</v>
       </c>
       <c r="N21">
-        <v>1.465536799901017</v>
+        <v>2.903809653421192</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.912589442203824</v>
+        <v>0.8808430603188242</v>
       </c>
       <c r="C22">
-        <v>0.5449943768326193</v>
+        <v>0.2979149996755268</v>
       </c>
       <c r="D22">
-        <v>0.07265942880264475</v>
+        <v>0.06378160459419746</v>
       </c>
       <c r="E22">
-        <v>0.0958042079747834</v>
+        <v>0.1127143778317254</v>
       </c>
       <c r="F22">
-        <v>2.359047264937175</v>
+        <v>2.955687105282493</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.071078299289852</v>
+        <v>1.516162720722164</v>
       </c>
       <c r="J22">
-        <v>0.141606860447844</v>
+        <v>0.1857207449620475</v>
       </c>
       <c r="K22">
-        <v>2.417763528904004</v>
+        <v>1.166478722782898</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6751555969654106</v>
+        <v>0.4209905147919315</v>
       </c>
       <c r="N22">
-        <v>1.445977274026447</v>
+        <v>2.893818531908096</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.83893354894559</v>
+        <v>0.8629807143674384</v>
       </c>
       <c r="C23">
-        <v>0.5242990499591258</v>
+        <v>0.2932733889663837</v>
       </c>
       <c r="D23">
-        <v>0.07000301197235359</v>
+        <v>0.06320656957997528</v>
       </c>
       <c r="E23">
-        <v>0.09292080411674775</v>
+        <v>0.112214532281012</v>
       </c>
       <c r="F23">
-        <v>2.305216241227541</v>
+        <v>2.947655418055348</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.052871256769883</v>
+        <v>1.514161803800796</v>
       </c>
       <c r="J23">
-        <v>0.1380909802706682</v>
+        <v>0.1852078491926861</v>
       </c>
       <c r="K23">
-        <v>2.324829095651637</v>
+        <v>1.144399131690022</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6501755044772466</v>
+        <v>0.4153983611092684</v>
       </c>
       <c r="N23">
-        <v>1.456207504625382</v>
+        <v>2.899089134562857</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.564378450725684</v>
+        <v>0.7960131994963149</v>
       </c>
       <c r="C24">
-        <v>0.447652722613384</v>
+        <v>0.2759578142245687</v>
       </c>
       <c r="D24">
-        <v>0.06004285910456986</v>
+        <v>0.06107240211227349</v>
       </c>
       <c r="E24">
-        <v>0.08224766356147484</v>
+        <v>0.1104018361386139</v>
       </c>
       <c r="F24">
-        <v>2.109922289104844</v>
+        <v>2.919441211440756</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9879499868619774</v>
+        <v>1.507647899917096</v>
       </c>
       <c r="J24">
-        <v>0.1252342247123224</v>
+        <v>0.1833981025972804</v>
       </c>
       <c r="K24">
-        <v>1.978975647124571</v>
+        <v>1.061722410081188</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5573146415135568</v>
+        <v>0.3945704030956492</v>
       </c>
       <c r="N24">
-        <v>1.49938934761434</v>
+        <v>2.920408426820728</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.275909770485868</v>
+        <v>0.725241371014846</v>
       </c>
       <c r="C25">
-        <v>0.3680230852390878</v>
+        <v>0.2578413610751227</v>
       </c>
       <c r="D25">
-        <v>0.04947705311186468</v>
+        <v>0.05886487493746984</v>
       </c>
       <c r="E25">
-        <v>0.07118875685773673</v>
+        <v>0.1086189053800588</v>
       </c>
       <c r="F25">
-        <v>1.915117670283067</v>
+        <v>2.893712463016044</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9254393707223372</v>
+        <v>1.502891803042687</v>
       </c>
       <c r="J25">
-        <v>0.1122137788949757</v>
+        <v>0.1817297464410146</v>
       </c>
       <c r="K25">
-        <v>1.616621003855727</v>
+        <v>0.974564404995192</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4602460217444531</v>
+        <v>0.3728562075693205</v>
       </c>
       <c r="N25">
-        <v>1.554524784854337</v>
+        <v>2.946299194559316</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6743817574864011</v>
+        <v>1.068527405536969</v>
       </c>
       <c r="C2">
-        <v>0.2449791818670235</v>
+        <v>0.3114134496530312</v>
       </c>
       <c r="D2">
-        <v>0.05732154878420204</v>
+        <v>0.04181536838078159</v>
       </c>
       <c r="E2">
-        <v>0.1074546111888708</v>
+        <v>0.06336765344254758</v>
       </c>
       <c r="F2">
-        <v>2.878803597020351</v>
+        <v>1.783065914060003</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.501337203754431</v>
+        <v>0.8848832799204516</v>
       </c>
       <c r="J2">
-        <v>0.1807450889423734</v>
+        <v>0.1032345997432316</v>
       </c>
       <c r="K2">
-        <v>0.9121141558723593</v>
+        <v>1.356849294559254</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3575122264537711</v>
+        <v>0.3908534301908375</v>
       </c>
       <c r="N2">
-        <v>2.967849150855329</v>
+        <v>1.601669748507902</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.640689483724401</v>
+        <v>0.9304061643473176</v>
       </c>
       <c r="C3">
-        <v>0.2365572323610081</v>
+        <v>0.2740461352991588</v>
       </c>
       <c r="D3">
-        <v>0.05632725425287077</v>
+        <v>0.03668096014953193</v>
       </c>
       <c r="E3">
-        <v>0.1067583391954621</v>
+        <v>0.0582372035969918</v>
       </c>
       <c r="F3">
-        <v>2.871212034085929</v>
+        <v>1.699677117208907</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.50149608696001</v>
+        <v>0.8603700078429597</v>
       </c>
       <c r="J3">
-        <v>0.1802297368062185</v>
+        <v>0.09747465277561673</v>
       </c>
       <c r="K3">
-        <v>0.8708599391783878</v>
+        <v>1.18422099660819</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3475142182274169</v>
+        <v>0.3448630373896222</v>
       </c>
       <c r="N3">
-        <v>2.984003695558819</v>
+        <v>1.637348628018827</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6203843842383776</v>
+        <v>0.8465845598464341</v>
       </c>
       <c r="C4">
-        <v>0.2315308718671645</v>
+        <v>0.2515162861827775</v>
       </c>
       <c r="D4">
-        <v>0.05574239339185283</v>
+        <v>0.03355241120735286</v>
       </c>
       <c r="E4">
-        <v>0.1063766714217707</v>
+        <v>0.05516178839962649</v>
       </c>
       <c r="F4">
-        <v>2.867788914015279</v>
+        <v>1.651189241141765</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.502191119430293</v>
+        <v>0.8466530732498825</v>
       </c>
       <c r="J4">
-        <v>0.1799882657655303</v>
+        <v>0.09408242035558345</v>
       </c>
       <c r="K4">
-        <v>0.8460555906855518</v>
+        <v>1.079627442443979</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.341572948509139</v>
+        <v>0.3170593372431796</v>
       </c>
       <c r="N4">
-        <v>2.994686754515527</v>
+        <v>1.660987914822947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6122060924509753</v>
+        <v>0.8126457959307629</v>
       </c>
       <c r="C5">
-        <v>0.2295189391075496</v>
+        <v>0.2424285890521105</v>
       </c>
       <c r="D5">
-        <v>0.05551053855027277</v>
+        <v>0.03228292210692274</v>
       </c>
       <c r="E5">
-        <v>0.1062326869378829</v>
+        <v>0.05392606863332006</v>
       </c>
       <c r="F5">
-        <v>2.866705290557562</v>
+        <v>1.632071414315959</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.502624559269861</v>
+        <v>0.8413807112554466</v>
       </c>
       <c r="J5">
-        <v>0.1799087227176059</v>
+        <v>0.09273416482055552</v>
       </c>
       <c r="K5">
-        <v>0.8360799160352883</v>
+        <v>1.037317975480818</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3392015573179492</v>
+        <v>0.3058278682490609</v>
       </c>
       <c r="N5">
-        <v>2.999232255595537</v>
+        <v>1.67104186793599</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.610853907305227</v>
+        <v>0.807022729440348</v>
       </c>
       <c r="C6">
-        <v>0.2291870532635727</v>
+        <v>0.2409249264656381</v>
       </c>
       <c r="D6">
-        <v>0.05547243163456983</v>
+        <v>0.03207243456539288</v>
       </c>
       <c r="E6">
-        <v>0.1062094764981758</v>
+        <v>0.05372190246766095</v>
       </c>
       <c r="F6">
-        <v>2.866544158805524</v>
+        <v>1.628934504789854</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.502705602965705</v>
+        <v>0.8405239014057173</v>
       </c>
       <c r="J6">
-        <v>0.1798966539491644</v>
+        <v>0.09251228615016771</v>
       </c>
       <c r="K6">
-        <v>0.8344314551528953</v>
+        <v>1.030310346979746</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3388107943482268</v>
+        <v>0.3039685616122796</v>
       </c>
       <c r="N6">
-        <v>2.999998630959212</v>
+        <v>1.672736315660302</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6202736992592861</v>
+        <v>0.8461259986412131</v>
       </c>
       <c r="C7">
-        <v>0.2315035911230154</v>
+        <v>0.2513933617361488</v>
       </c>
       <c r="D7">
-        <v>0.05573924023145338</v>
+        <v>0.03353526927094208</v>
       </c>
       <c r="E7">
-        <v>0.1063746828115804</v>
+        <v>0.05514505363771605</v>
       </c>
       <c r="F7">
-        <v>2.867773039368018</v>
+        <v>1.650928866686826</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.50219635681114</v>
+        <v>0.8465807063127144</v>
       </c>
       <c r="J7">
-        <v>0.1799871166501745</v>
+        <v>0.09406410202547733</v>
       </c>
       <c r="K7">
-        <v>0.845920519500396</v>
+        <v>1.079055623583457</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3415407656991931</v>
+        <v>0.316907479249231</v>
       </c>
       <c r="N7">
-        <v>2.994747279165175</v>
+        <v>1.661121821256003</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6626854175413257</v>
+        <v>1.020680881118665</v>
       </c>
       <c r="C8">
-        <v>0.2420452178231756</v>
+        <v>0.2984366588376872</v>
       </c>
       <c r="D8">
-        <v>0.05697341392967559</v>
+        <v>0.04003965937435794</v>
       </c>
       <c r="E8">
-        <v>0.1072050326718959</v>
+        <v>0.0615823935041675</v>
       </c>
       <c r="F8">
-        <v>2.875929034661112</v>
+        <v>1.753724893052706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.501267957186904</v>
+        <v>0.8761428885904863</v>
       </c>
       <c r="J8">
-        <v>0.1805518433626148</v>
+        <v>0.1012172287724624</v>
       </c>
       <c r="K8">
-        <v>0.8977805665754204</v>
+        <v>1.297011978266738</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3540239374602336</v>
+        <v>0.3748991924705791</v>
       </c>
       <c r="N8">
-        <v>2.973260604696357</v>
+        <v>1.613603043702966</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7488863686125455</v>
+        <v>1.372201675387345</v>
       </c>
       <c r="C9">
-        <v>0.2638694768930918</v>
+        <v>0.3944949763929628</v>
       </c>
       <c r="D9">
-        <v>0.05959579168368379</v>
+        <v>0.0530156468552363</v>
       </c>
       <c r="E9">
-        <v>0.109196444780352</v>
+        <v>0.07485969123558078</v>
       </c>
       <c r="F9">
-        <v>2.901751739211321</v>
+        <v>1.978828379641911</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.504191089102676</v>
+        <v>0.9455838943096069</v>
       </c>
       <c r="J9">
-        <v>0.1822538565913447</v>
+        <v>0.1164977059674683</v>
       </c>
       <c r="K9">
-        <v>1.00365502748204</v>
+        <v>1.73745219011596</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3800704623262945</v>
+        <v>0.4925840937321055</v>
       </c>
       <c r="N9">
-        <v>2.937191387577698</v>
+        <v>1.534884170461339</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8140741764142945</v>
+        <v>1.638213821992167</v>
       </c>
       <c r="C10">
-        <v>0.2806132397461738</v>
+        <v>0.4681861751749636</v>
       </c>
       <c r="D10">
-        <v>0.06164426381064203</v>
+        <v>0.06273051452881617</v>
       </c>
       <c r="E10">
-        <v>0.1108802921017933</v>
+        <v>0.08510541559490648</v>
       </c>
       <c r="F10">
-        <v>2.926728430311385</v>
+        <v>2.161567843367678</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.509237025052016</v>
+        <v>1.004928956478189</v>
       </c>
       <c r="J10">
-        <v>0.1838669668880968</v>
+        <v>0.1286509911237914</v>
       </c>
       <c r="K10">
-        <v>1.084002982979115</v>
+        <v>2.071895514297324</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4001642874106679</v>
+        <v>0.5822459098085915</v>
       </c>
       <c r="N10">
-        <v>2.914393943654261</v>
+        <v>1.486953976543873</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8441349944173737</v>
+        <v>1.761435206105347</v>
       </c>
       <c r="C11">
-        <v>0.2883861370700345</v>
+        <v>0.5025838801516613</v>
       </c>
       <c r="D11">
-        <v>0.06260233349875932</v>
+        <v>0.06720091407542839</v>
       </c>
       <c r="E11">
-        <v>0.1116941493018047</v>
+        <v>0.08989564034561326</v>
       </c>
       <c r="F11">
-        <v>2.939398102018586</v>
+        <v>2.249210867647847</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.512163465637791</v>
+        <v>1.034062693725936</v>
       </c>
       <c r="J11">
-        <v>0.1846796235980008</v>
+        <v>0.1344209829994583</v>
       </c>
       <c r="K11">
-        <v>1.121115652017352</v>
+        <v>2.227114267198431</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4095140276668587</v>
+        <v>0.6239220704278949</v>
       </c>
       <c r="N11">
-        <v>2.904827861580458</v>
+        <v>1.467568301334026</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8555767207441818</v>
+        <v>1.808461590308923</v>
       </c>
       <c r="C12">
-        <v>0.2913520679206272</v>
+        <v>0.5157533817326794</v>
       </c>
       <c r="D12">
-        <v>0.06296886943026436</v>
+        <v>0.06890211213327291</v>
       </c>
       <c r="E12">
-        <v>0.1120092046633445</v>
+        <v>0.09173023529181279</v>
       </c>
       <c r="F12">
-        <v>2.944383975270327</v>
+        <v>2.283116295602014</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.51336246598725</v>
+        <v>1.045432468927736</v>
       </c>
       <c r="J12">
-        <v>0.1849986920390023</v>
+        <v>0.1366443016175296</v>
       </c>
       <c r="K12">
-        <v>1.135250188445468</v>
+        <v>2.286399754759714</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4130845771539242</v>
+        <v>0.6398490668321557</v>
       </c>
       <c r="N12">
-        <v>2.901321246922592</v>
+        <v>1.460600218847389</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8531099470739605</v>
+        <v>1.798316579446293</v>
       </c>
       <c r="C13">
-        <v>0.2907122998383613</v>
+        <v>0.5129103912211406</v>
       </c>
       <c r="D13">
-        <v>0.06288976373709687</v>
+        <v>0.06853533999240113</v>
       </c>
       <c r="E13">
-        <v>0.1119410468003359</v>
+        <v>0.09133417005746836</v>
       </c>
       <c r="F13">
-        <v>2.943301808790125</v>
+        <v>2.275781120644766</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.513100199210569</v>
+        <v>1.042968265402173</v>
       </c>
       <c r="J13">
-        <v>0.1849294709768188</v>
+        <v>0.1361637030955194</v>
       </c>
       <c r="K13">
-        <v>1.132202471241527</v>
+        <v>2.273607894224881</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4123142615817486</v>
+        <v>0.6364121539633345</v>
       </c>
       <c r="N13">
-        <v>2.902071304036369</v>
+        <v>1.462083910484381</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8450751434208144</v>
+        <v>1.76529649146741</v>
       </c>
       <c r="C14">
-        <v>0.2886296946395817</v>
+        <v>0.5036643508941552</v>
       </c>
       <c r="D14">
-        <v>0.06263241394911745</v>
+        <v>0.06734069909037999</v>
       </c>
       <c r="E14">
-        <v>0.1117199316067214</v>
+        <v>0.09004614759069085</v>
       </c>
       <c r="F14">
-        <v>2.939804521514901</v>
+        <v>2.251985508018024</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.512260287461295</v>
+        <v>1.034991146030819</v>
       </c>
       <c r="J14">
-        <v>0.1847056464470143</v>
+        <v>0.1346031061740973</v>
       </c>
       <c r="K14">
-        <v>1.122276890207274</v>
+        <v>2.231981155402167</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4098071777994647</v>
+        <v>0.6252293798917776</v>
       </c>
       <c r="N14">
-        <v>2.904537047519071</v>
+        <v>1.466987407650578</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8401611892977883</v>
+        <v>1.745119758990143</v>
       </c>
       <c r="C15">
-        <v>0.2873569712158712</v>
+        <v>0.4980201801109843</v>
       </c>
       <c r="D15">
-        <v>0.06247526529736547</v>
+        <v>0.06661006671199488</v>
       </c>
       <c r="E15">
-        <v>0.1115853857047071</v>
+        <v>0.08925994820476646</v>
       </c>
       <c r="F15">
-        <v>2.937686837126563</v>
+        <v>2.237505494670074</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.511757647259635</v>
+        <v>1.030149820024626</v>
       </c>
       <c r="J15">
-        <v>0.1845700232114496</v>
+        <v>0.1336523032075192</v>
       </c>
       <c r="K15">
-        <v>1.11620770333667</v>
+        <v>2.206551697446201</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4082754229960628</v>
+        <v>0.6183990525162102</v>
       </c>
       <c r="N15">
-        <v>2.90606247872131</v>
+        <v>1.470040285904716</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121178022982463</v>
+        <v>1.630209440602329</v>
       </c>
       <c r="C16">
-        <v>0.280108408354522</v>
+        <v>0.4659573132075252</v>
       </c>
       <c r="D16">
-        <v>0.06158217626489915</v>
+        <v>0.06243947531748972</v>
       </c>
       <c r="E16">
-        <v>0.1108280662873966</v>
+        <v>0.08479513661498927</v>
       </c>
       <c r="F16">
-        <v>2.925926759590197</v>
+        <v>2.155936650627396</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.509058479864869</v>
+        <v>1.003070517366311</v>
       </c>
       <c r="J16">
-        <v>0.1838154440020503</v>
+        <v>0.1282790692861795</v>
       </c>
       <c r="K16">
-        <v>1.081588887932213</v>
+        <v>2.061818957044636</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.399557461040942</v>
+        <v>0.5795416025757021</v>
       </c>
       <c r="N16">
-        <v>2.915035313083251</v>
+        <v>1.4882716269816</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7950181387379587</v>
+        <v>1.560314204293945</v>
       </c>
       <c r="C17">
-        <v>0.2757016667407868</v>
+        <v>0.4465241970822831</v>
       </c>
       <c r="D17">
-        <v>0.06104098427140059</v>
+        <v>0.05989472190845646</v>
       </c>
       <c r="E17">
-        <v>0.110375722372531</v>
+        <v>0.08209065078840183</v>
       </c>
       <c r="F17">
-        <v>2.919047326553269</v>
+        <v>2.10709921617368</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.507564304104683</v>
+        <v>0.9870262216385584</v>
       </c>
       <c r="J17">
-        <v>0.1833727246172998</v>
+        <v>0.125047075026913</v>
       </c>
       <c r="K17">
-        <v>1.06049527454519</v>
+        <v>1.973862871262639</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3942627626384478</v>
+        <v>0.5559432513598637</v>
       </c>
       <c r="N17">
-        <v>2.92074603930115</v>
+        <v>1.500092413501434</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7852211383545011</v>
+        <v>1.520317362832401</v>
       </c>
       <c r="C18">
-        <v>0.2731817124447389</v>
+        <v>0.4354279857987819</v>
       </c>
       <c r="D18">
-        <v>0.06073217387625363</v>
+        <v>0.05843578699006713</v>
       </c>
       <c r="E18">
-        <v>0.1101200526046746</v>
+        <v>0.08054714903980553</v>
       </c>
       <c r="F18">
-        <v>2.91521353415591</v>
+        <v>2.0794296677511</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.50676428320196</v>
+        <v>0.9779971840081032</v>
       </c>
       <c r="J18">
-        <v>0.1831255056460535</v>
+        <v>0.1232106026386433</v>
       </c>
       <c r="K18">
-        <v>1.048415684394428</v>
+        <v>1.923558425157353</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3912370627674093</v>
+        <v>0.5424526074505351</v>
       </c>
       <c r="N18">
-        <v>2.924106420233088</v>
+        <v>1.50711736921437</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7819106194916969</v>
+        <v>1.506808970434292</v>
       </c>
       <c r="C19">
-        <v>0.27233101990862</v>
+        <v>0.4316844262783377</v>
       </c>
       <c r="D19">
-        <v>0.06062804103575559</v>
+        <v>0.05794260139335705</v>
       </c>
       <c r="E19">
-        <v>0.1100342617550112</v>
+        <v>0.08002655590352958</v>
       </c>
       <c r="F19">
-        <v>2.913936613159876</v>
+        <v>2.070131482941534</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.506503607648845</v>
+        <v>0.9749734507393626</v>
       </c>
       <c r="J19">
-        <v>0.1830430763521562</v>
+        <v>0.1225925611574823</v>
       </c>
       <c r="K19">
-        <v>1.044334829292382</v>
+        <v>1.906573374717453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3902159925305355</v>
+        <v>0.5378985740787954</v>
       </c>
       <c r="N19">
-        <v>2.925257188238902</v>
+        <v>1.509533978865434</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7968344667630731</v>
+        <v>1.567733121890683</v>
       </c>
       <c r="C20">
-        <v>0.2761692514375227</v>
+        <v>0.4485843565487926</v>
       </c>
       <c r="D20">
-        <v>0.06109833980038104</v>
+        <v>0.06016511764086374</v>
       </c>
       <c r="E20">
-        <v>0.1104234088802087</v>
+        <v>0.08237728695014823</v>
       </c>
       <c r="F20">
-        <v>2.919766915333184</v>
+        <v>2.112254058137509</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.507717214491407</v>
+        <v>0.9887133369762324</v>
       </c>
       <c r="J20">
-        <v>0.1834190847892572</v>
+        <v>0.1253887739346595</v>
       </c>
       <c r="K20">
-        <v>1.062735251206249</v>
+        <v>1.983195941581982</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3948243567975851</v>
+        <v>0.5584466766442304</v>
       </c>
       <c r="N20">
-        <v>2.92013028466063</v>
+        <v>1.498810510988093</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.847433577407287</v>
+        <v>1.774984984467835</v>
       </c>
       <c r="C21">
-        <v>0.2892407950537006</v>
+        <v>0.5063760811773932</v>
       </c>
       <c r="D21">
-        <v>0.06270790269692839</v>
+        <v>0.06769135880416144</v>
       </c>
       <c r="E21">
-        <v>0.1117846923179648</v>
+        <v>0.09042389369229298</v>
       </c>
       <c r="F21">
-        <v>2.940826652537268</v>
+        <v>2.258954826712866</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.512504524392519</v>
+        <v>1.037324806500251</v>
       </c>
       <c r="J21">
-        <v>0.1847710815999406</v>
+        <v>0.1350604199032972</v>
       </c>
       <c r="K21">
-        <v>1.125190082055241</v>
+        <v>2.244193616705047</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4105427550615914</v>
+        <v>0.6285099461325672</v>
       </c>
       <c r="N21">
-        <v>2.903809653421192</v>
+        <v>1.465536799901031</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8808430603188242</v>
+        <v>1.912589442203938</v>
       </c>
       <c r="C22">
-        <v>0.2979149996755268</v>
+        <v>0.5449943768333299</v>
       </c>
       <c r="D22">
-        <v>0.06378160459419746</v>
+        <v>0.07265942880273002</v>
       </c>
       <c r="E22">
-        <v>0.1127143778317254</v>
+        <v>0.09580420797477274</v>
       </c>
       <c r="F22">
-        <v>2.955687105282493</v>
+        <v>2.359047264937146</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.516162720722164</v>
+        <v>1.071078299289837</v>
       </c>
       <c r="J22">
-        <v>0.1857207449620475</v>
+        <v>0.1416068604477587</v>
       </c>
       <c r="K22">
-        <v>1.166478722782898</v>
+        <v>2.417763528904061</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4209905147919315</v>
+        <v>0.6751555969654035</v>
       </c>
       <c r="N22">
-        <v>2.893818531908096</v>
+        <v>1.445977274026404</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8629807143674384</v>
+        <v>1.838933548945704</v>
       </c>
       <c r="C23">
-        <v>0.2932733889663837</v>
+        <v>0.52429904995941</v>
       </c>
       <c r="D23">
-        <v>0.06320656957997528</v>
+        <v>0.0700030119722328</v>
       </c>
       <c r="E23">
-        <v>0.112214532281012</v>
+        <v>0.09292080411672998</v>
       </c>
       <c r="F23">
-        <v>2.947655418055348</v>
+        <v>2.305216241227555</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.514161803800796</v>
+        <v>1.052871256769883</v>
       </c>
       <c r="J23">
-        <v>0.1852078491926861</v>
+        <v>0.138090980270654</v>
       </c>
       <c r="K23">
-        <v>1.144399131690022</v>
+        <v>2.324829095651609</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4153983611092684</v>
+        <v>0.6501755044772182</v>
       </c>
       <c r="N23">
-        <v>2.899089134562857</v>
+        <v>1.456207504625382</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7960131994963149</v>
+        <v>1.56437845072594</v>
       </c>
       <c r="C24">
-        <v>0.2759578142245687</v>
+        <v>0.4476527226135829</v>
       </c>
       <c r="D24">
-        <v>0.06107240211227349</v>
+        <v>0.06004285910444906</v>
       </c>
       <c r="E24">
-        <v>0.1104018361386139</v>
+        <v>0.08224766356145352</v>
       </c>
       <c r="F24">
-        <v>2.919441211440756</v>
+        <v>2.10992228910483</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.507647899917096</v>
+        <v>0.9879499868619774</v>
       </c>
       <c r="J24">
-        <v>0.1833981025972804</v>
+        <v>0.1252342247122442</v>
       </c>
       <c r="K24">
-        <v>1.061722410081188</v>
+        <v>1.978975647124599</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3945704030956492</v>
+        <v>0.557314641513571</v>
       </c>
       <c r="N24">
-        <v>2.920408426820728</v>
+        <v>1.499389347614311</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.725241371014846</v>
+        <v>1.275909770485868</v>
       </c>
       <c r="C25">
-        <v>0.2578413610751227</v>
+        <v>0.3680230852387467</v>
       </c>
       <c r="D25">
-        <v>0.05886487493746984</v>
+        <v>0.04947705311184336</v>
       </c>
       <c r="E25">
-        <v>0.1086189053800588</v>
+        <v>0.07118875685774029</v>
       </c>
       <c r="F25">
-        <v>2.893712463016044</v>
+        <v>1.915117670283081</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.502891803042687</v>
+        <v>0.9254393707223514</v>
       </c>
       <c r="J25">
-        <v>0.1817297464410146</v>
+        <v>0.1122137788949615</v>
       </c>
       <c r="K25">
-        <v>0.974564404995192</v>
+        <v>1.616621003855698</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3728562075693205</v>
+        <v>0.460246021744446</v>
       </c>
       <c r="N25">
-        <v>2.946299194559316</v>
+        <v>1.554524784854308</v>
       </c>
       <c r="O25">
         <v>0</v>
